--- a/backend/data/reports/2025-09-26_report.xlsx
+++ b/backend/data/reports/2025-09-26_report.xlsx
@@ -487,7 +487,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Generated: 2025-09-26 12:01:55</t>
+          <t>Generated: 2025-09-26 12:05:39</t>
         </is>
       </c>
     </row>
